--- a/api/src/data/planning_EFREI PARIS.xlsx
+++ b/api/src/data/planning_EFREI PARIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -42,10 +42,10 @@
     <x:t>Commentaires</x:t>
   </x:si>
   <x:si>
-    <x:t>BBME2A - BASKET BALL (NIVEAU 2 : GRANDES ECOLES - M)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/11/2022</x:t>
+    <x:t>BBME2B - BASKET BALL (NIVEAU 2 : GRANDES ECOLES - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/11/2023</x:t>
   </x:si>
   <x:si>
     <x:t>14:00</x:t>
@@ -54,37 +54,46 @@
     <x:t>EFREI PARIS</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE PARIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MACDONALD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17/11/2022</x:t>
+    <x:t>ESTP PARIS (2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>US METRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DRISS Victor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/11/2023</x:t>
   </x:si>
   <x:si>
     <x:t>13:30</x:t>
   </x:si>
   <x:si>
-    <x:t>ESCP BUSINESS SCHOOL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VIGNOLES EST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24/11/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PSB PARIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALSACE DE BAGNOLET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05/01/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:00</x:t>
+    <x:t>IMCP Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WILMA RUDOLPH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KOUIDER Mehdi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/11/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EPF CACHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CITÉ UNIVERSITAIRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUILLON Thomas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/01/2024</x:t>
   </x:si>
   <x:si>
     <x:t>ESIEE PARIS</x:t>
@@ -475,11 +484,9 @@
   <x:cols>
     <x:col min="9" max="16384" width="9.140625" style="1" customWidth="1"/>
     <x:col min="1" max="1" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="2" max="3" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="12.710625" style="1" customWidth="1"/>
+    <x:col min="2" max="4" width="12.710625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="14.900625" style="1" customWidth="1"/>
+    <x:col min="6" max="7" width="16.010625" style="1" customWidth="1"/>
     <x:col min="8" max="8" width="15.060625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -528,25 +535,31 @@
       <x:c r="F2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A3" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -554,19 +567,22 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -574,19 +590,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" customFormat="1" ht="15" customHeight="1"/>

--- a/api/src/data/planning_EFREI PARIS.xlsx
+++ b/api/src/data/planning_EFREI PARIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -78,6 +78,18 @@
     <x:t>KOUIDER Mehdi</x:t>
   </x:si>
   <x:si>
+    <x:t>BBME3C - BASKET BALL (NIVEAU 3 : GRANDES ECOLES - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EN VETERINAIRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUGENE DELACROIX (ENVA)</x:t>
+  </x:si>
+  <x:si>
     <x:t>30/11/2023</x:t>
   </x:si>
   <x:si>
@@ -93,6 +105,36 @@
     <x:t>GUILLON Thomas</x:t>
   </x:si>
   <x:si>
+    <x:t>07/12/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICAM GRAND PARIS SUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parc intercommunal des Sports (Icam)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/12/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SORBONNE UNIVERSITE LETTRES (3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>report du 30/11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/12/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESIEA PARIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LE STADIUM</x:t>
+  </x:si>
+  <x:si>
     <x:t>18/01/2024</x:t>
   </x:si>
   <x:si>
@@ -100,6 +142,45 @@
   </x:si>
   <x:si>
     <x:t>ESIEE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATAILLE Dorian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>match programmé le 15/01 à 20h à l'ESIEE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/01/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSTITUT MINES TELECOM EVRY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMT Evry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>report du 18/01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EPISPORT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESO SPORTING CLUB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUZANNE LENGLEN B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>report du 14/12</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -476,7 +557,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H10"/>
+  <x:dimension ref="A1:H17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -484,10 +565,8 @@
   <x:cols>
     <x:col min="9" max="16384" width="9.140625" style="1" customWidth="1"/>
     <x:col min="1" max="1" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="2" max="4" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="14.900625" style="1" customWidth="1"/>
-    <x:col min="6" max="7" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="8" max="8" width="15.060625" style="1" customWidth="1"/>
+    <x:col min="2" max="3" width="12.710625" style="1" customWidth="1"/>
+    <x:col min="4" max="8" width="16.010625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
@@ -564,25 +643,22 @@
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -590,26 +666,181 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="D5" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="7" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="8" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="9" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="10" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+      <x:c r="G5" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A6" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A7" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A8" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A9" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A10" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A11" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A12" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="14" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="15" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="16" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="17" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A1:H1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
